--- a/DOM_Banner/output/dept0713/Janet L Funk_2022.xlsx
+++ b/DOM_Banner/output/dept0713/Janet L Funk_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Department of Nutritional Sciences , University of Arizona , Tucson , Arizona , USA; Department of Medicine, University of Arizona, Tucson, Arizona, USA; Department of Medicine, University of Arizona, Tucson, Arizona, USA; Cancer Biology Graduate Interdisciplinary Program, University of Arizona, Tucson, Arizona, USA; Department of Pharmacology, Vanderbilt University, Nashville, Tennessee, USA; Department of Pharmacology, Vanderbilt University, Nashville, Tennessee, USA; Department of Nutritional Sciences, University of Arizona, Tucson, Arizona, USA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W3193897221</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Curcumin Inhibition of TGFβ signaling in bone metastatic breast cancer cells and the possible role of oxidative metabolites</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>The Journal of Nutritional Biochemistry</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jnutbio.2021.108842</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>publisher-specific-oa</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>acceptedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/34407450</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jnutbio.2021.108842</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Department of Epidemiology and Environmental Health, School of Public Health and Health Professions, University at Buffalo, The State University of New York , Buffalo, New York 14214 , USA; Department of Health Promotion Sciences, Mel and Enid Zuckerman College of Public Health, University of Arizona , Tucson, Arizona 85724 , USA; Jacobs School of Medicine and Biomedical Sciences, University at Buffalo, The State University of New York , Buffalo, New York 14203 , USA; Department of Epidemiology and Environmental Health, School of Public Health and Health Professions, University at Buffalo, The State University of New York , Buffalo, New York 14214 , USA; Department of Epidemiology and Environmental Health, School of Public Health and Health Professions, University at Buffalo, The State University of New York , Buffalo, New York 14214 , USA; Department of Epidemiology and Environmental Health, School of Public Health and Health Professions, University at Buffalo, The State University of New York , Buffalo, New York 14214 , USA; Department of Medicine, Brigham and Women’s Hospital and Harvard Medical School , Boston, Massachusetts 02115 , USA; Department of Medicine, University of Arizona , Tucson, Arizona 85724 , USA; Department of Epidemiology and Environmental Health, School of Public Health and Health Professions, University at Buffalo, The State University of New York , Buffalo, New York 14214 , USA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4224049843</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Serum Follicle-Stimulating Hormone and 5-Year Change in Adiposity in Healthy Postmenopausal Women</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-04-18</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>The Journal of Clinical Endocrinology &amp; Metabolism</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Oxford University Press</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1210/clinem/dgac238</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35435955</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1210/clinem/dgac238</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>School of Nutritional Sciences and Wellness, University of Arizona, Tucson, Arizona, USA; Department of Health Promotion Sciences, University of Arizona, Tucson, Arizona, USA; School of Nutritional Sciences and Wellness, University of Arizona, Tucson, Arizona, USA; Centre for Inflammation Research and Translational Medicine, Department of Life Sciences, Brunel University London, Uxbridge, UK; Institute of Biomedical and Clinical Science, University of Exeter Medical School, Research, Innovation Royal Devon &amp;amp; Exeter Hospital Exeter UK; Research Centre for Optimal Health, School of Life Sciences, University of Westminster, London, UK; Department of Epidemiology and Biostatistics, University of Arizona, Tucson, Arizona, USA; Department of Epidemiology and Biostatistics, University of Arizona, Tucson, Arizona, USA; School of Nutritional Sciences and Wellness, University of Arizona, Tucson, Arizona, USA; Department of Epidemiology and Biostatistics, University of Arizona, Tucson, Arizona, USA; Department of Epidemiology and Biostatistics, University of Arizona, Tucson, Arizona, USA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4312106832</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Metabolically favorable adiposity and bone mineral density: a Mendelian randomization analysis</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-12-10</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Obesity</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Wiley-Blackwell</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/oby.23604</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36502291</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/oby.23604</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Health Sciences, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4281290394</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Acetylation of Adenine Nucleotide Translocase, Fuel Selection, and Metabolic Flexibility in Human Skeletal Muscle</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-05-09</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>medRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.05.05.22274505</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.05.05.22274505</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
